--- a/biology/Zoologie/Choerodon_fasciatus/Choerodon_fasciatus.xlsx
+++ b/biology/Zoologie/Choerodon_fasciatus/Choerodon_fasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choerodon fasciatus est une espèce de poissons de la famille des Labridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerodon fasciatus se rencontre, avec une distribution disjointe, dans le Pacifique ouest, notamment depuis archipel des Ryūkyū jusqu'à Taïwan, et depuis la Nouvelle-Calédonie jusqu'au Queensland en Australie[3].
-Il est présent entre 5 et 35 m de profondeur dans des eaux dont la température est comprise entre 25 et 28 °C[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerodon fasciatus se rencontre, avec une distribution disjointe, dans le Pacifique ouest, notamment depuis archipel des Ryūkyū jusqu'à Taïwan, et depuis la Nouvelle-Calédonie jusqu'au Queensland en Australie.
+Il est présent entre 5 et 35 m de profondeur dans des eaux dont la température est comprise entre 25 et 28 °C.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerodon fasciatus peut mesurer jusqu'à 30 cm de longueur totale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerodon fasciatus peut mesurer jusqu'à 30 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson fréquente les récifs coralliens du côté du large. Il déplace des pierres et des cailloux avec ses dents protubérantes pour chercher de la nourriture[4]. Il mange des mollusques, des crustacés et des échinodermes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson fréquente les récifs coralliens du côté du large. Il déplace des pierres et des cailloux avec ses dents protubérantes pour chercher de la nourriture. Il mange des mollusques, des crustacés et des échinodermes.
 </t>
         </is>
       </c>
@@ -605,11 +623,48 @@
           <t>Choerodon fasciatus et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson est recherché tant pour les aquariums que pour l'alimentation.
-Philatélie
-Ce poisson figure sur une émission de la Nouvelle-Calédonie de 1959 (valeur faciale : 3 F) ainsi que de Guinée de 1997 (valeur faciale 300 FG) Y&amp;T 1125 et des Philippines (YT 2252 sous l'ancien nom binominal Lienardella fasciata)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Choerodon_fasciatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Choerodon_fasciatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Choerodon fasciatus et l'Homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson figure sur une émission de la Nouvelle-Calédonie de 1959 (valeur faciale : 3 F) ainsi que de Guinée de 1997 (valeur faciale 300 FG) Y&amp;T 1125 et des Philippines (YT 2252 sous l'ancien nom binominal Lienardella fasciata)
 </t>
         </is>
       </c>
